--- a/medicine/Enfance/Belles_Histoires_et_Belles_Vies/Belles_Histoires_et_Belles_Vies.xlsx
+++ b/medicine/Enfance/Belles_Histoires_et_Belles_Vies/Belles_Histoires_et_Belles_Vies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Belles Histoires et Belles Vies est une collection d'albums illustrés publiés par Fleurus de 1947 à 1972. Ils comprennent des récits de vies chrétiennes, de l'Ancien et du Nouveau Testament, de l'histoire de l'Église catholique. Elle est rééditée par Mame sous le titre Belles histoires, belles vies.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection « Belles Histoires et Belles Vies » est créée en 1947, inaugurée par la Plus belle histoire, et se poursuit jusqu'en 1972 avec Jean-Joseph Allemand, dernier des 98 volumes de la collection[1].
-Ces volumes sont consacrés aux grandes figures de la chrétienté, présentées à raison d'une personnalité par volume[1] ; certains récits se poursuivent cependant sur plusieurs volumes, comme l'Histoire sainte, l'histoire de l'Église, l'histoire des missions.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection « Belles Histoires et Belles Vies » est créée en 1947, inaugurée par la Plus belle histoire, et se poursuit jusqu'en 1972 avec Jean-Joseph Allemand, dernier des 98 volumes de la collection.
+Ces volumes sont consacrés aux grandes figures de la chrétienté, présentées à raison d'une personnalité par volume ; certains récits se poursuivent cependant sur plusieurs volumes, comme l'Histoire sainte, l'histoire de l'Église, l'histoire des missions.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Présentation, publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaque album comporte quatre images par page, avec un narratif sous chaque image[1], les deux premiers bénéficiant aussi d'une « belle édition » de 204 pages, avec une seule gravure par page, dont seize en couleurs. Certains d'entre eux sont pré-publiés dans les revues Cœurs vaillants ou Âmes vaillantes[2].
-Les albums ont plusieurs sortes de diffusion, allant de plusieurs centaines de milliers d'exemplaires pour certains, diffusés par les circuits ordinaires de librairies, jusqu'à une distribution nettement plus confidentielle pour quelques titres, qui ne sont diffusés que par les congrégations les ayant commandés[3].
-Les rééditions sont colorées par les frères Chagnaud, à partir de 1994[2]. L'édition et la diffusion sont assurées au XXIe siècle par l'éditeur Mame, qui prend le relais de Fleurus, avec comme titre « Belles histoires, belles vies ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque album comporte quatre images par page, avec un narratif sous chaque image, les deux premiers bénéficiant aussi d'une « belle édition » de 204 pages, avec une seule gravure par page, dont seize en couleurs. Certains d'entre eux sont pré-publiés dans les revues Cœurs vaillants ou Âmes vaillantes.
+Les albums ont plusieurs sortes de diffusion, allant de plusieurs centaines de milliers d'exemplaires pour certains, diffusés par les circuits ordinaires de librairies, jusqu'à une distribution nettement plus confidentielle pour quelques titres, qui ne sont diffusés que par les congrégations les ayant commandés.
+Les rééditions sont colorées par les frères Chagnaud, à partir de 1994. L'édition et la diffusion sont assurées au XXIe siècle par l'éditeur Mame, qui prend le relais de Fleurus, avec comme titre « Belles histoires, belles vies ».
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Auteurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les rédacteurs des textes sont essentiellement des ecclésiastiques et des théologiens[2] comme l'abbé Gaston Courtois, fondateur du mouvement des Cœurs vaillants-Âmes vaillantes, Jacques Bondallaz, Jean Pihan, cofondateur des Cœurs vaillants et du Bureau international catholique de l'enfance (BICE), mais aussi des religieuses comme Agnès Richomme. Celle-ci, morte en 2001, est l'auteur de la moitié des titres de la série[4].
-Les illustrateurs sont les « grands noms » de l'époque[2]. Le plus prolifique pour la collection est Robert Rigot. Les autres illustrateurs sont Alain d'Orange, Bernard Baray, Raoul Auger, André Galland, Manon Iessel, Pierre Decomble, Mixi-Bérel[2]. Ils opèrent en noir et blanc, parfois rehaussé au lavis ; en 1994 la couleur est ajoutée par les frères Chagnaud[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rédacteurs des textes sont essentiellement des ecclésiastiques et des théologiens comme l'abbé Gaston Courtois, fondateur du mouvement des Cœurs vaillants-Âmes vaillantes, Jacques Bondallaz, Jean Pihan, cofondateur des Cœurs vaillants et du Bureau international catholique de l'enfance (BICE), mais aussi des religieuses comme Agnès Richomme. Celle-ci, morte en 2001, est l'auteur de la moitié des titres de la série.
+Les illustrateurs sont les « grands noms » de l'époque. Le plus prolifique pour la collection est Robert Rigot. Les autres illustrateurs sont Alain d'Orange, Bernard Baray, Raoul Auger, André Galland, Manon Iessel, Pierre Decomble, Mixi-Bérel. Ils opèrent en noir et blanc, parfois rehaussé au lavis ; en 1994 la couleur est ajoutée par les frères Chagnaud.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Albums</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 98 albums de la série sont[5],[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 98 albums de la série sont, :
 La plus belle histoire, par Gaston Courtois, 1947.
 La Belle Vie de Notre-Dame, par Agnès Richomme, 1949 ;  rééd. Marie de Nazareth, 1995.
 Anne-Marie Javouhey, par Agnès Richomme, 1949.
